--- a/civ_abs_words_frequency.xlsx
+++ b/civ_abs_words_frequency.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2396,6 +2396,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/civ_abs_words_frequency.xlsx
+++ b/civ_abs_words_frequency.xlsx
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>climat</t>
+          <t>�</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>181</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>chang</t>
+          <t>climat</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>176</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>peopl</t>
+          <t>chang</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>107</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>peopl</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>go</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>say</t>
+          <t>make</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>thing</t>
+          <t>say</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>think</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>think</t>
+          <t>game</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>thing</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>polit</t>
+          <t>know</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>actual</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>actual</t>
+          <t>even</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>scienc</t>
+          <t>polit</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>much</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>scienc</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>realli</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>co2</t>
+          <t>use</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>see</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>global</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>well</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>fuck</t>
+          <t>world</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>shit</t>
+          <t>look</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>happen</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>point</t>
+          <t>good</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>right</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>come</t>
+          <t>want</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>see</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>point</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>realli</t>
+          <t>level</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>believ</t>
+          <t>co2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ice</t>
+          <t>shit</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>come</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>take</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fact</t>
+          <t>believ</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>big</t>
+          <t>fuck</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>someth</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>work</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>happen</t>
+          <t>ice</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>need</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>civil</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>someth</t>
+          <t>way</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sinc</t>
+          <t>carbon</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>take</t>
+          <t>tri</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>big</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>tell</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tri</t>
+          <t>tell</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>sinc</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pollut</t>
+          <t>fact</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>planet</t>
+          <t>vote</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>studi</t>
+          <t>planet</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>increas</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>last</t>
+          <t>civ</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>rise</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>temperatur</t>
+          <t>real</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>rise</t>
+          <t>differ</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>datum</t>
+          <t>tile</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>civ</t>
+          <t>temperatur</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>keep</t>
+          <t>feel</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>enough</t>
+          <t>everi</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>increas</t>
+          <t>civil</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>flood</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>differ</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>scientif</t>
+          <t>high</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>man</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>find</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>heat</t>
+          <t>last</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>everi</t>
+          <t>issu</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>play</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>wrong</t>
+          <t>build</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>nation</t>
+          <t>alreadi</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>seem</t>
+          <t>read</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>studi</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>feel</t>
+          <t>anyth</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>keep</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>put</t>
+          <t>turn</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>wrong</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -1595,11 +1595,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>give</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>generat</t>
+          <t>enough</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>someon</t>
+          <t>caus</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>r</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -1647,11 +1647,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>pollut</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
@@ -1660,11 +1660,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>watch</t>
+          <t>seem</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -1673,11 +1673,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>build</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>power</t>
+          <t>never</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>tax</t>
+          <t>datum</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>caus</t>
+          <t>heat</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>never</t>
+          <t>sure</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>mayb</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>import</t>
+          <t>lot</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>someon</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>iq</t>
+          <t>put</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>oil</t>
+          <t>mechan</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
@@ -1803,11 +1803,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>sure</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>natur</t>
+          <t>low</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
@@ -1842,11 +1842,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>emiss</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
@@ -1855,11 +1855,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>find</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>power</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
@@ -1881,11 +1881,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>energi</t>
+          <t>end</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>immigr</t>
+          <t>life</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>talk</t>
+          <t>grow</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
@@ -1920,11 +1920,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>countri</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
@@ -1933,11 +1933,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>anyth</t>
+          <t>citi</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
@@ -1946,11 +1946,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>atmospher</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
@@ -1959,11 +1959,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ocean</t>
+          <t>oil</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
@@ -1972,11 +1972,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>live</t>
+          <t>scientif</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>alreadi</t>
+          <t>everyon</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
@@ -1998,11 +1998,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>lot</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
@@ -2011,11 +2011,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>less</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
@@ -2024,11 +2024,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
@@ -2037,11 +2037,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>issu</t>
+          <t>back</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
@@ -2050,11 +2050,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>mechan</t>
+          <t>part</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>popul</t>
+          <t>show</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
@@ -2076,11 +2076,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
@@ -2089,11 +2089,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>call</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129">
@@ -2102,11 +2102,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>ocean</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>guy</t>
+          <t>kind</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>pretti</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132">
@@ -2141,11 +2141,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>degre</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>money</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>noth</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135">
@@ -2180,11 +2180,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>eurogam</t>
+          <t>emiss</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136">
@@ -2193,11 +2193,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137">
@@ -2206,11 +2206,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>reddit</t>
+          <t>generat</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138">
@@ -2219,11 +2219,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>specif</t>
+          <t>anoth</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>mayb</t>
+          <t>guy</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>anoth</t>
+          <t>energi</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141">
@@ -2258,11 +2258,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>probabl</t>
+          <t>talk</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142">
@@ -2271,11 +2271,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
@@ -2284,11 +2284,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>nation</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144">
@@ -2297,11 +2297,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>state</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
@@ -2310,11 +2310,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>conserv</t>
+          <t>let</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146">
@@ -2323,11 +2323,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>watch</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>flood</t>
+          <t>natur</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>start</t>
+          <t>popul</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150">
@@ -2375,11 +2375,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>kind</t>
+          <t>countri</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>green</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/civ_abs_words_frequency.xlsx
+++ b/civ_abs_words_frequency.xlsx
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>�</t>
+          <t>climat</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>293</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>climat</t>
+          <t>chang</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>chang</t>
+          <t>peopl</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>236</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -490,7 +490,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>peopl</t>
+          <t>go</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>make</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>say</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>say</t>
+          <t>get</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>think</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>think</t>
+          <t>game</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>thing</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>thing</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>know</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>actual</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -633,7 +633,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>actual</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>even</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>polit</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>polit</t>
+          <t>much</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>warm</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>warm</t>
+          <t>scienc</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -711,7 +711,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>scienc</t>
+          <t>realli</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>realli</t>
+          <t>well</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>see</t>
+          <t>global</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -763,7 +763,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>see</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>world</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -789,7 +789,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>look</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>happen</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
@@ -815,7 +815,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>happen</t>
+          <t>good</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>right</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>want</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>point</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>level</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>point</t>
+          <t>co2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>shit</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>co2</t>
+          <t>come</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>shit</t>
+          <t>take</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -932,7 +932,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>come</t>
+          <t>believ</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>take</t>
+          <t>fuck</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>believ</t>
+          <t>someth</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fuck</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>someth</t>
+          <t>work</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>ice</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ice</t>
+          <t>need</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>way</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>still</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>still</t>
+          <t>carbon</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>tri</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>big</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tri</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>big</t>
+          <t>tell</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>sinc</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tell</t>
+          <t>fact</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sinc</t>
+          <t>vote</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>fact</t>
+          <t>planet</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>vote</t>
+          <t>increas</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>planet</t>
+          <t>civ</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>increas</t>
+          <t>rise</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>civ</t>
+          <t>real</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>rise</t>
+          <t>differ</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>tile</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>differ</t>
+          <t>temperatur</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>tile</t>
+          <t>first</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>temperatur</t>
+          <t>feel</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>everi</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>feel</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>everi</t>
+          <t>civil</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>flood</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>civil</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>flood</t>
+          <t>high</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>man</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>last</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>issu</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>last</t>
+          <t>play</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>issu</t>
+          <t>build</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>play</t>
+          <t>alreadi</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>build</t>
+          <t>read</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>alreadi</t>
+          <t>studi</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>anyth</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>studi</t>
+          <t>keep</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>anyth</t>
+          <t>turn</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>keep</t>
+          <t>wrong</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>give</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>wrong</t>
+          <t>enough</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>caus</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>enough</t>
+          <t>pollut</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>caus</t>
+          <t>seem</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>pollut</t>
+          <t>never</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>seem</t>
+          <t>heat</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1673,11 +1673,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>sure</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>never</t>
+          <t>mayb</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>datum</t>
+          <t>lot</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>heat</t>
+          <t>someon</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>sure</t>
+          <t>datum</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>mayb</t>
+          <t>put</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>lot</t>
+          <t>mechan</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>someon</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>put</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>mechan</t>
+          <t>low</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>find</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>everyon</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
@@ -1842,11 +1842,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>power</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
@@ -1855,11 +1855,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>find</t>
+          <t>end</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>power</t>
+          <t>life</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>grow</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>grow</t>
+          <t>citi</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -1933,11 +1933,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>citi</t>
+          <t>oil</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
@@ -1946,11 +1946,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>scientif</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>oil</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>scientif</t>
+          <t>less</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>everyon</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>sea</t>
+          <t>back</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>part</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>show</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2050,11 +2050,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>call</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>ocean</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127">
@@ -2076,11 +2076,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>kind</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>pretti</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ocean</t>
+          <t>degre</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>kind</t>
+          <t>money</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>pretti</t>
+          <t>emiss</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132">
@@ -2141,11 +2141,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>degre</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>generat</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>noth</t>
+          <t>anoth</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>emiss</t>
+          <t>guy</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>energi</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -2206,11 +2206,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>generat</t>
+          <t>talk</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138">
@@ -2219,11 +2219,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>anoth</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>guy</t>
+          <t>nation</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>energi</t>
+          <t>state</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>talk</t>
+          <t>let</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>watch</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>nation</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>natur</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>popul</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>watch</t>
+          <t>noth</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>countri</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>natur</t>
+          <t>green</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>popul</t>
+          <t>least</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>countri</t>
+          <t>live</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>start</t>
         </is>
       </c>
       <c r="C151" t="n">
